--- a/L0 Analytics with Excel/Admin/DS2_RegressionSalesMarketing.xlsx
+++ b/L0 Analytics with Excel/Admin/DS2_RegressionSalesMarketing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/063bf5775d666102/__DSM_LMS_Courses/3_Create_CXO_Dashboards/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/063bf5775d666102/__DSM_LMS_Courses/GitHub/DSM_Excel_Analytics/L0 Analytics with Excel/Admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="54" documentId="8_{3F4375A5-90D1-4D5B-8C3F-BE0FCB8F9FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4579F9E9-14D5-4BDB-B297-4789E2517E62}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Context" sheetId="2" r:id="rId1"/>
@@ -1545,19 +1545,19 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="4" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="11" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="16" applyBorder="1" applyAlignment="1">
@@ -8077,7 +8077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -8091,13 +8091,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:7" ht="22.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="3:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -8135,37 +8135,37 @@
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="31" t="s">
         <v>288</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C9" s="30"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="32" t="s">
         <v>289</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="32"/>
-      <c r="G9" s="30"/>
+      <c r="G9" s="28"/>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="27" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9506,8 +9506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L201"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F190" sqref="F190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
